--- a/vizualizer/server/tables/table1.xlsx
+++ b/vizualizer/server/tables/table1.xlsx
@@ -19,6 +19,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,14 +228,149 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">A2*A2+10</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">A3*A3+10</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">A4*A4+10</f>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">A5*A5+10</f>
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">A6*A6+10</f>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">A7*A7+10</f>
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">A8*A8+10</f>
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">A9*A9+10</f>
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">A10*A10+10</f>
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">A11*A11+10</f>
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">A12*A12+10</f>
+        <v>12110</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">A13*A13+10</f>
+        <v>14410</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">A14*A14+10</f>
+        <v>16910</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">A15*A15+10</f>
+        <v>19610</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
